--- a/data/trans_bre/IP26C_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP26C_R-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 14,3</t>
+          <t>-0,26; 14,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-14,46; 3,67</t>
+          <t>-13,1; 3,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,11; 9,08</t>
+          <t>-6,92; 8,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-16,71; 3,64</t>
+          <t>-16,89; 4,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-10,66; 371,87</t>
+          <t>-5,37; 406,71</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-64,88; 33,76</t>
+          <t>-62,01; 34,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-60,94; 256,88</t>
+          <t>-61,79; 227,63</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-77,77; 54,34</t>
+          <t>-79,4; 61,48</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 4,97</t>
+          <t>-1,55; 4,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 4,17</t>
+          <t>-2,18; 4,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 2,74</t>
+          <t>-3,47; 2,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 3,02</t>
+          <t>-3,88; 2,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-13,88; 59,41</t>
+          <t>-14,27; 61,6</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-21,31; 48,49</t>
+          <t>-18,54; 49,42</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-32,25; 32,74</t>
+          <t>-30,46; 36,78</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-33,73; 34,05</t>
+          <t>-32,09; 33,58</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 6,83</t>
+          <t>-4,33; 6,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-7,83; 2,24</t>
+          <t>-8,09; 2,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 5,94</t>
+          <t>-4,55; 5,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-9,64; 1,37</t>
+          <t>-9,78; 1,57</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-33,38; 98,55</t>
+          <t>-34,95; 89,8</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-61,25; 32,78</t>
+          <t>-64,59; 30,5</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-41,0; 91,83</t>
+          <t>-40,29; 87,45</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-62,2; 18,04</t>
+          <t>-62,61; 17,02</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 5,06</t>
+          <t>-0,34; 4,72</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 2,13</t>
+          <t>-3,22; 2,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 2,64</t>
+          <t>-2,37; 2,72</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 0,83</t>
+          <t>-4,9; 0,74</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 63,92</t>
+          <t>-2,97; 57,38</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-25,51; 21,85</t>
+          <t>-26,15; 23,77</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-22,24; 32,55</t>
+          <t>-22,58; 34,8</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-35,8; 8,74</t>
+          <t>-37,22; 8,22</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP26C_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP26C_R-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>6,75</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-4,92</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,3</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-6,62</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100,3%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,25%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,58%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-46,69%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,66; 14,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,8; 3,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,95; 9,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,88; 2,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,98; 350,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,56; 27,32</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,56; 262,03</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-84,67; 38,97</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,75</t>
+          <t>1,72</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-4,92</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,3</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-6,45</t>
+          <t>-0,73</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>100,3%</t>
+          <t>17,66%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-29,25%</t>
+          <t>10,64%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>17,58%</t>
+          <t>-1,91%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-43,11%</t>
+          <t>-7,15%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 14,6</t>
+          <t>-1,2; 5,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-13,1; 3,66</t>
+          <t>-2,2; 4,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,92; 8,28</t>
+          <t>-3,4; 2,93</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-16,89; 4,52</t>
+          <t>-4,21; 2,84</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 406,71</t>
+          <t>-10,54; 68,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-62,01; 34,29</t>
+          <t>-19,9; 50,44</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-61,79; 227,63</t>
+          <t>-30,52; 36,52</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-79,4; 61,48</t>
+          <t>-35,18; 34,76</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,72</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>-2,84</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,62</t>
+          <t>-3,51</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>17,66%</t>
+          <t>9,87%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>10,64%</t>
+          <t>-28,11%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-1,91%</t>
+          <t>4,45%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-5,81%</t>
+          <t>-29,79%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 4,95</t>
+          <t>-4,86; 6,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 4,48</t>
+          <t>-8,1; 1,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 2,99</t>
+          <t>-4,41; 5,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 2,85</t>
+          <t>-8,86; 1,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-14,27; 61,6</t>
+          <t>-36,9; 90,82</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-18,54; 49,42</t>
+          <t>-64,5; 27,57</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-30,46; 36,78</t>
+          <t>-39,1; 89,01</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-32,09; 33,58</t>
+          <t>-59,76; 22,45</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>2,18</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,84</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-3,88</t>
+          <t>-1,86</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>9,87%</t>
+          <t>23,05%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-28,11%</t>
+          <t>-4,7%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,45%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-31,75%</t>
+          <t>-17,12%</t>
         </is>
       </c>
     </row>
@@ -968,156 +968,55 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 6,62</t>
+          <t>-0,43; 4,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,09; 2,1</t>
+          <t>-3,27; 2,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 5,57</t>
+          <t>-2,42; 2,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-9,78; 1,57</t>
+          <t>-5,01; 0,89</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-34,95; 89,8</t>
+          <t>-4,29; 57,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-64,59; 30,5</t>
+          <t>-26,38; 21,22</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-40,29; 87,45</t>
+          <t>-23,05; 29,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-62,61; 17,02</t>
+          <t>-39,4; 9,3</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>2,19</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,5</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,11</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-1,87</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>23,18%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-4,62%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>1,16%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-16,53%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-0,34; 4,72</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-3,22; 2,29</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-2,37; 2,72</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-4,9; 0,74</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-2,97; 57,38</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-26,15; 23,77</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-22,58; 34,8</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-37,22; 8,22</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
